--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/27_Düzce_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/27_Düzce_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1684196D-B2BA-4F20-AACB-8524737BF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EAE076-B9F7-45A4-B3F2-2B7142105CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{6D2E20C4-DE2C-4214-A37B-8BE66D557A97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{4CD8C60C-583B-428F-876F-16A8A4853B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -995,17 +995,17 @@
   <cellStyles count="13">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{286DC185-2793-4F58-9EE1-9D14869BB120}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{16A2A4DC-0B73-4E01-960B-79A6326E6802}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{60C8CF4E-0D40-438A-94CB-E4502A864DD7}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{5E7E4CAC-FA84-42DE-8633-F365BABA1BB6}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{DCFD4C39-28C6-497E-9253-7AC3189ED54D}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{89EF2C94-2243-4039-93F5-83FDBB175E06}"/>
-    <cellStyle name="Normal 3 2 2" xfId="8" xr:uid="{4C9A59F2-1E1D-4610-8188-FA95170A3B6B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{8AEBEB3A-92E2-405F-9A9E-2D762C57CC3E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{E163E405-BAD5-4152-AAC9-DFCC243F441C}"/>
-    <cellStyle name="Not 2" xfId="11" xr:uid="{13537AE7-9127-47F4-BFC5-82966CFEE60B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{F0D0A743-B96F-4B4D-AA02-F2D9A5104761}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4FD6E60E-CD93-4C06-9B14-C520070D52E2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E52CA243-AC4D-4C6F-89B6-51BA2FED6DA6}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F58EDCEF-26EA-4440-BE9D-5DE155A23D2C}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{8348B163-6A19-46C2-8257-C21A9A09BF73}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{9C6DF97A-5682-4ADD-B30B-766AFF76FC6A}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{D1934EF6-7A89-410B-AA4D-572B21545EAC}"/>
+    <cellStyle name="Normal 3 2 2" xfId="8" xr:uid="{5194A34E-BC85-4C36-969A-495BAD5A78AC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{903261ED-0EEF-44D9-83D5-DC95403E80D2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{F5365B2C-DEC6-42DC-BB8E-9E2A4CDB9E05}"/>
+    <cellStyle name="Not 2" xfId="11" xr:uid="{826FC6DF-1577-4BFD-A045-F9BCC06251D1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{6D74B67F-B3EA-4D96-8C56-DD1CB80D9301}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D539331-54FF-4CDD-9017-DE2F2321E471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D2A0D1-F225-410B-A89B-7683265CD473}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2632,18 +2632,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B10F5961-4926-41EF-B629-A31FB3EDC556}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4081CC4-92FF-47CA-9CAE-2B8D4E62786B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4DE9FC6-DC0D-49CD-91E0-2A5E33551F25}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40B7F29B-4971-46C4-9F28-B4DB3645B221}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E76E71F3-1C32-43EC-9E9E-CC257D5D8CB6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{045B7202-3A31-4009-A530-54EA93769ECB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA2EFCE3-EF80-4401-8E00-8EA16D89ED20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{533000EA-1947-487C-843D-50F72D78FF14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{489B09E0-5D9E-4B2A-AF30-FFDA657FC707}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B397A7A6-BBF3-4883-97FC-445751100798}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49346833-5140-433F-993F-B9D497EC41F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5768CD36-4D2B-4874-8A7C-3BA2282DF912}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A470556F-65F0-4E90-8CB0-CE0E51C3795C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{238588B6-BAA3-4C68-8474-011E70AA28FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{78E70928-6D77-4907-BE69-C499E8992359}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DD1CD8E-E364-478B-A732-BB686DE5AFF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB39BFD3-569E-4FE4-A9CE-E7483398FE4B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52660E81-51F3-4578-97FE-8A2913B0EAEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{019FA42B-CD43-4A6D-9786-D828433E331E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9E06FE6-A25F-4E5E-A947-B270D1494285}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{156E5C09-6111-4F6A-A0DE-A41E26633432}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{859922D2-6123-4202-B412-AAFD6A518D11}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4A30532-1288-4746-AEB6-361D9E571BD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F27DE46F-1537-45A6-9E91-DCFB8D844C17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2656,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA54565E-5873-4891-9445-37328A8C91F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBFA45B-CA91-4FFC-8D4F-ECA6F3F2BB44}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3951,18 +3951,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88EC9EC9-1C22-4A46-AEEA-CFE4DC0DF67A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D1151A1-8D58-4ED5-8E33-11F75A84FF4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE9A6542-A3E4-486E-A57C-B53ED238F6B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1661F8CE-2363-4854-A853-777D27E6F56A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D94F390F-D06B-48D0-AAFB-97513F9E4FC5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8DE3D18-668D-46CA-B12D-AE13477E1BA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A13FFF9F-D9AD-41F4-8290-A1F9C46112A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2830972-127E-4539-9B6D-EB3BFCFDF048}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E5C2BF7-AC44-4E5F-A913-736F6AE4410A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3085CA06-9A15-409F-A7BC-24A4A6EB6D9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9148552C-0CCB-4C49-AABF-AF84AF0F024D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE3DECC5-14B4-404F-B3E0-3625F11767F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D2246AB-9017-43DD-B89E-F05D87196B5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDADE9C3-5BE0-4194-A6A9-3739CAFBAFE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD28A3D0-F5F3-4E95-81CC-D73AFE5C66BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{36156A62-374A-44E0-BE77-BC906C61E044}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCF73E08-E0CE-46C5-BA54-5F715468D9B0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC5A598A-919B-43C9-A1ED-B6FC5A4C19DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9FC399B-0AD3-4793-9626-99B581AB4DED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44B2A7CB-C9ED-4B69-B15E-CEA917638DCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8974A76-8501-4D00-91F6-53E6A653FFCE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{977D5EA5-9F11-4990-ABDC-FF8D5DC4AF05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81DD0CE8-5D15-40B9-B128-2981FB7126E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE5237C2-B649-485E-935B-3C29C6269716}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3975,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47915EE-6201-4CAC-A3CF-4E079310FC63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582AFD1A-C8AF-48C2-9FE4-D9D832E326FD}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5266,18 +5266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D4550F1-9750-4735-A27A-79B824B02612}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5FD5FDF-D653-4B30-800D-FF6EF81C3759}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2D5EAF8-C578-43DF-9A9F-A6364A523013}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA502922-4FCE-4C74-ADA3-394D79D9F9A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E760999F-1168-45FC-AA7B-6EB587790232}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1181DEE-1C53-47B1-9F4C-2442250D35D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A47BDF5F-1C73-4593-B424-98D1EB03746C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C28B84F2-477B-41E2-BB4C-379AF744C815}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3529EF0-2802-478E-B099-BE7012A40F9A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D7D50399-AED6-423E-B580-F82CE0D260D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C897143-F87A-4E90-9B7D-1B2CE6EC4471}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DCB2497-5DB5-4513-A1C8-F46884318365}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79F5D97D-CE74-4222-87F1-585F3210D76F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2CA75AC-AB3F-4424-9AEB-4AB94C0EE2F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{180DA78A-F266-409D-8B76-7038C8B86470}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD19E053-679D-4ACA-832A-684C377FCFF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E015EBE-1038-4DCC-9AF8-A47CEE851AFA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{40EC2B52-5E71-4FB1-ACC6-A1EF143631B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{147DFD06-4F3C-47A0-9FDC-EBFB92287EBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82559AC0-5956-4312-A560-6B59E4D55D2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06E6FED8-7E3F-457D-A57D-74F7D38BEF1A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3D0B4441-3588-441B-A3D5-3E747A7B51B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC092025-CE51-4BA4-A1BA-AEBF21F095EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A218101-8DE9-4CC0-9BAC-EFEE708F713D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5290,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38465F7F-10F0-4864-A5E1-39FE93DC7519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BC9FAC-0DFD-483E-B81A-0D7FCADCDF11}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6577,18 +6577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CE7A80B-62F0-4630-8A58-B26500CA9C6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87022090-2D6D-4F02-90A6-5BEB4126EC5C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B68DBDE-A159-41AE-8AF8-79849414770B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5D3F8FE-EDF3-45CA-96C2-FC22FB1C4346}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D93C6C17-BB57-451D-8203-7E5C0A43B8D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EBA36930-9218-4697-8AF7-5D0A15CA8AEA}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BB6A0FA1-5A28-45EE-A1CA-D3F6155EC65C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59C37350-6F4B-401E-A8E4-F9D0BD00E66B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7CBDE0FB-5539-4E35-87C2-5A80C0E8D617}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF05B5FD-29CB-4E6A-A3D9-C3560FC5B0D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B5F0F9C-979D-49A3-A0CC-8BA723933177}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8852282E-5FD4-4756-82B9-1667AA5B85B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF4DCE89-6284-49DC-BC13-3688898BBBFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30317F40-7610-4854-8F02-20E908B9985E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6AB739A-38B0-40E6-BCE9-3C4C9222A033}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A69DFC5-C9A9-4715-B959-3B1F9626FB75}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E3D62A2-7D7C-42F5-B3CA-EFEF5698E96A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B31ED3FB-4F22-4230-B5C9-B5B0C1C705AA}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{710F0FE2-3B06-49EC-9983-9C82B5F975C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0E1D1CF-7B34-4230-B25B-7896A6F2518A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3D40061-294B-407E-AEC3-847EA3B5DDD4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15A3E59E-4F8E-422B-90D7-B4D5259C200B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EB0A981-DE6E-4014-A69E-785B4C753F10}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC55929C-AAC5-4775-AF4B-5FAE6BDBAB05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6601,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF71F48-1A24-408A-88C3-8CCE880148BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472815B-F011-496A-A674-D518E1653CA0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7858,18 +7858,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{941D072A-036B-4616-915B-A46F55A69F57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EEFAF46-211C-4582-A62D-3E6E3D8CCE7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F467A02-CBA1-4334-95E0-75D98999FA07}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D04B30BD-9D1B-4BC6-ACC8-95E56ED5816D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68907DBC-9D81-4F92-B0EC-1A03C60E7612}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{47F283F2-38CA-4BC7-9DB4-C462189C0276}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{943792F3-7F13-4C18-9CDA-51DE03C42C9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B917D2F9-F1E2-4408-8E9A-A382E35DAE56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{286F1F35-AD51-4D09-A24D-BF44B29CB3BB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB9EE2A9-C2FA-4894-A06A-D5CCF0A75E2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BC1E4AA-6556-4865-ACA6-4D730A248D04}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49661D5D-9A79-4E6C-9BAA-2F5A2FE34A02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B62EA30B-F630-40A8-9F64-9FB0BE068982}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD7FE21E-C516-4704-B08E-88C6F5F0C673}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F6BAA44-16EE-4062-8F5D-0AEA814AF605}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A00594E-C9B9-468E-AFD8-94640C6F85E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DCBDBC6-55D2-4D38-B29C-D7881B47E33F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81D4EAF9-9F07-4A9C-97C4-F01B21B075CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B80D2BF-7E32-4313-BD09-F3B8D307F48C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28769EF6-769A-4248-886B-248F0AEFF957}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C13E4FCD-682D-417B-B4C8-F10EBAADF02F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABF7D3B7-568C-45FA-BF96-DBE14F24A92A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0403B67E-2F17-458A-93CC-1BBBA79D4367}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08C09CA4-3A4B-42C6-889F-60AED96864C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7882,7 +7882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170AF606-390D-4E22-B340-894BFE814641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8A07AA-7296-4E5D-8E17-6D45C27A2280}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9139,18 +9139,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{722C1D53-3D37-4C29-B2F4-F3C196A810E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46333E96-B7EF-49FB-A816-58EE9F292A7A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16D150E0-137A-454D-B58B-FF1B541C37F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1E41D10-6DB9-45DE-8B3F-9CBBDFFA564D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1A35905-5924-4DD1-8F6A-2EFA8B563EDF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{46D1CBC9-31A6-40C6-9F83-1BF364CD38EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C6BC0A2-73AB-4B55-A4EE-3E27E25478A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63BF07BC-79E3-40C5-B6D7-257EC3973A9C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7377E57-332B-48E2-B101-ED222014C65B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F196F94D-A285-481F-9B32-D61C054F9196}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CAC87D5-7A0E-4936-A32A-56C3D5BB6924}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FDF69A9-C94A-4DC9-BC5F-3B064EFAABEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65374F00-539E-418B-9D10-2CE4C4A314A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E12B117F-7A77-41A3-8787-370866A11A3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1BA3E59-2FE0-4ABE-A795-85751534B46E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{535514B1-F5E3-40FA-8B3B-C6F9F24B8CDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FE1FF96-B76B-48B0-BDBE-7A85B22301E7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{87721F22-7FB1-41F5-AB38-62DBC42A6C62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33CB240D-0B6E-4BC7-8F76-6728D5BEEC5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DC8E207-B61F-4936-B9B2-2C7F8C76453B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE7928F4-F801-417A-B69B-6406F985E3CF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A21F0F2-945E-4A09-90E7-E66D4CE98203}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6ADE51F-CE16-4731-80E8-30DD36684352}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{328EA98C-DF0E-4ED5-97FD-36BAB2AB70E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9163,7 +9163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A9C9E9-51CD-4CD1-AEFC-50CB8C877CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8222C034-AEC0-43BE-84AC-E20B14339D63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10420,18 +10420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{800CBDF2-F1D0-41A4-BE07-129E21FB607D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D0560EB-6AB1-424D-8093-BE83BED18B02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F62CE4D-9DE7-4092-B9C1-E6E5C9EA9F44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6A54AED-937C-4AB3-BC2F-FDD5327D3BDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DFA26C7-D0D8-4271-AFDC-00BCA12D2A02}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D437074-7B92-45AD-8466-379334E34AF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{973C17AB-C5FF-475C-B94F-BA612A78A8AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{226253F2-A3C5-4ED3-86DB-EDBEB3C1AC0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{957BD4E2-9FF0-4414-B2E2-CAB1B03F0B5E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4793E65F-84F8-4B74-9213-8637314CB7CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3CBEE76-F646-4C85-BDDD-D3DB37FEB00D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94DD6B0E-8EDC-4C5E-88C9-9C05ECF4AA5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F8C4149-C28F-4D9D-B9E5-3EFC173965F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{181536AD-4200-4AFE-9D70-3004A13407D9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A78461E8-07CF-4AAC-B883-D9EC1FDD254E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49BCAE03-5CBC-449A-A57E-3D5C199C05B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BB72840-707D-41B3-8A25-819946AFDD3B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21900CD2-3761-42F9-8AA5-4846062B64CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1C16F1A-32A3-4206-AA95-A88776B9E47C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70A92390-AD07-4097-804D-D8FF426A0095}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F43DA2F-2477-4144-901F-A04EA960D069}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A97B166-411F-4C18-B8D8-F43E482B153F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E570DA5-7271-41F8-B766-7297DD34C3AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF125EF5-19DD-492F-B2F5-185D99189737}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10444,7 +10444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8E44D-88BB-495D-BFD4-9602265694C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1419E4-A862-41AE-AAE3-E042E7225540}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11697,18 +11697,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2624885A-0FBF-400E-A630-83518B4B9CA6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B919FADF-02BB-4F61-A9E3-989A3FDDEC3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27CF7ED4-F942-4E93-8A74-5566EB2380EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E714EB5-E101-46E8-8A7A-2066335C8530}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FB4CED7-1CB3-4F48-922F-221884A06E49}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F55986C8-5343-4481-AE03-4F8C0A1D458F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9139491-351C-41A0-AC4F-1B675E62EB37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AEBB49A-04F3-4CE2-8E1B-628ECB77FAFD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE793DA4-A4D9-4A36-8B8D-ECF7BEBBE837}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8D755DE8-8A76-4126-9CEC-3EAC51D1BAB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E2E9CD7-30E9-4110-9DFC-E25F3530FC31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7DCD37C-43D6-410A-8EB9-AC5C2AF96BA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{827D86CC-4843-4246-B758-2C883EC9B992}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D7EE9E8-0972-47E4-95C3-7384B73926FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CCCD066-15A2-4C6D-8223-80C95ED72817}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AD1B366-462B-4C65-BEE3-1827B15E41F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6CE5E9D-262E-4D4E-A5C3-B2D373C698BC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0AC360B7-B1DA-4CCD-B898-7128B5E61851}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFC4A372-AB44-4AE9-B934-A51F6BF386AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0832BFA5-BF19-4386-9640-F6F7C5547F8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A40E4C51-C3DA-471C-81EA-AF0956D7D8BA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AC6FFDB-9295-4E87-B53B-8050AFD36070}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3840DCA7-47DB-48A3-BA47-68D3C4A3A4FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B44CD42F-C0EE-409B-ACDC-DC9F67F682F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11721,7 +11721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2A335E-E969-48C1-AB8F-9AEE6354A587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE33818-4430-4BD5-8A00-325D109E8658}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12966,18 +12966,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A506757-D1F6-4A9E-9D7F-7DF9FD2A861D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14D83CCB-D0CF-484F-ABA8-F7CC9F1B0466}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C7ECF11-51F9-4137-A2C5-3C18EDFEEA34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BEF3AE9C-E74A-46FC-811F-71BD7BDDF0EC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A16EBDFE-EDFE-4D3B-9069-119A2A3F0B4C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E4C4F5D-752E-4883-A18B-551D69C40F84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EBB2D2F-49EF-46DC-BAA7-B501A9F2E887}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DEE8DF4-1C12-4540-910E-CFE8F1ED541C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21F11BB6-9798-442E-8022-2A0F8779ED55}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2BEE7D6D-FFA8-4CAA-8726-91A27F4965E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA52EB32-CE24-4C81-B8E5-F9F34D97EEB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6827CC17-F6E6-4647-A65C-F136F04FD1C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AF793FC-BA47-47DF-B24F-89724DA7E8E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD3BA743-044E-4723-AADE-65816F355B0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FD1BADCF-B867-4B09-8617-091B9D32CAC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE2D865A-151C-4674-9379-5EA0DFAC3B49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AF3F502-38F4-4F45-96FB-F8D45C767544}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B98A1D7B-420A-4BE9-836C-9C915139B57B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C61AC677-BC57-4CD5-B54D-7C0455F2B9A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D608CE0-12C8-432F-A19F-87D9D50F7F13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C8C9830-5770-4186-ACB9-85E0493A31F9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{142DE614-D02C-4B55-BF31-831CD089D492}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1448F196-D77B-4DFC-B041-355E8C08512C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98D7E4FD-91A7-4A99-B3BF-67129316D646}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12990,7 +12990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A206B5B-5DB5-441A-9535-62807BB97D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFBA3F5-49BB-42DE-9D0C-1BBA97404E5B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14285,18 +14285,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DDBDEA8-447C-4B8E-8A98-FF8E14337634}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{123C7A66-9F5B-45E9-A7BC-F508F659678B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{331C2223-C27D-42C6-8D06-19C4EEA7D92D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01F28951-F943-40A8-863B-EAC747F9AE2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6972142-DB3F-433C-9B0C-5F8F9F487D57}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D7D6204A-696A-4C08-9D1E-E8D722B11605}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0913FFB2-5EC5-429E-876F-A2DBC67E9AF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6442982-58B7-4E21-9C09-998384D4D501}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21C3860A-F166-490D-ABFF-6717B12B0186}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C9DBB48D-D11C-4CE9-A691-01DC354DD9ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{286B3468-432E-485C-BC1F-045A8049EE8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6988BF47-02BD-4A14-BF0B-79FA6B65AFD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ECCE6E0-DD16-4E6B-B689-22B0D987EC56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F30FD20E-68C6-4E1C-AB26-FFF2893667E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0897619E-3F09-47E0-8FFC-68C330F7B163}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EBB743FE-5060-4C4C-90B7-F90D06EECB58}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5621371C-3969-4BF5-BAD4-3A6FDAB79C6F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{228E03F0-F65C-4D50-9327-411E6D7E6981}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FAF8164-B9E8-4A42-9E7F-360DDEF30A00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A83462C6-2A90-4F1F-AF72-1A8FBD802918}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{460D67D8-2DBC-4CF7-ADE3-1608BFC1066B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4D654E91-F567-46EA-9A12-3DDFBB3A76B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEBA216F-C678-405F-8CE6-D4119A506016}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87C38FA6-0164-4BDC-A628-B8733FDCEE7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14309,7 +14309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAAE307-0687-40AA-8024-74EE608D56FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA1AD4-B6B9-4697-A3F2-3C8827B2F371}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15604,18 +15604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF3FC988-3178-4591-8E55-100127A5E426}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01B7E991-88A6-4926-8F89-038BD7047643}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFEA6137-7ABF-4D06-B3FA-04A1976FDBF8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4045CA38-E226-46D6-9F5E-AA3A7850E462}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15ED75EA-3938-4030-A264-A7203C20DE26}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43E84035-45A5-473B-A305-7520862D0D16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE3F50C5-690C-4F78-BC68-8FDDD8EA08FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68FDFB5C-F200-488D-8ED6-B36148D6B629}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{318FC041-FA9A-47FE-B5F7-EF3AB9F0B292}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB3C83A7-2E1C-4422-AB9F-454E4B9216AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EACB55CB-7447-40D9-9174-C283A195FBE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AF10DFA-D2E4-48B9-8B52-F0A7AC7B03F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ACD69FA-77C6-40E8-B027-4D2B43032EFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF820237-4AB4-4AE3-A18C-157EB8A896A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF81B9C5-8564-4EF1-B393-4803B84DFF6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF66EF58-559B-43D4-BEA3-F7F6F970C19B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCB1353E-7F99-4C18-9D09-2579B9812C11}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C887B9FE-78C5-4069-A4CA-9D0E270873C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21952631-5A13-4785-A68C-DACB326103DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DF10276-2D3E-42C4-9FD4-0966890AEF4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B75D60A6-ED13-4238-8729-0899CB919F60}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BDBDE2BB-42E3-47D3-A89C-E80D80000698}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{679390F7-4529-4E42-887E-4CBA2F016B3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56B18F94-F89C-4165-94BE-51D6046C8860}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15628,7 +15628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D41FC6-FE83-40A5-8D45-6474F19A8967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E470C1-4BEF-4940-BDC5-469899586E74}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16923,18 +16923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32BC32F3-39BA-4A44-9F06-12E0CF77F42C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6389DC5F-B293-4101-A944-76A28B8EE38E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8316B2C6-C3BB-4153-9B21-3A4F05456761}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5ACDA2EC-BC83-49D1-922A-F0240DB5BAF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D066B09-2044-4241-B995-F6E95FFC1264}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D62F56F-CF93-4319-9167-14B53DB686D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8F6206F-8141-4989-B634-4FB3E9C9AA9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9296E7A1-4CA6-415D-B0A0-C6F8147FE39F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4A7B9AC-2D41-4B5F-B486-83D218746A41}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{84F4CB13-03A6-451C-8482-D94F271693FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0657469-BE1C-4DF3-9CBC-4C5B6AFD7052}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{792A47FF-284F-4D59-A4C9-C97D4416C9A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1665CBEB-0195-40A0-BF24-5AF2D091B436}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29E11D91-1F60-4024-8D91-F7118D72A503}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6410C90B-E08B-49C8-A634-017B3C1BE4A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{990EDF94-DE92-4CD6-9496-BB98E561D3B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{928EEFB5-99AA-4F11-9498-C34071DD381A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8528D5F-9E56-4148-9B98-AA9D3DC039E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59E263BD-A35E-4EF9-9790-3152C3B49965}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F4B71C9-2FC9-4D59-B165-F11C9D2FFDAB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC67F977-05AC-4706-9B72-B170B82DE217}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8FFD3EB9-FD63-48FD-9AB4-DBFACE155161}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB42EC05-2B95-4BB5-BD88-E97B177D5608}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B4E3BEA-209F-4B17-965F-EEA4CAC1CFFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
